--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E122DA9-E384-44C1-8920-0D39C944695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F66F0-48D1-4B5B-8608-30B6A2DC00A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{04A738BD-2870-4489-8638-5155B260011A}"/>
   </bookViews>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -293,6 +293,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,7 +633,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>163.81</v>
+        <v>253.48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -667,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>4701.9487170000002</v>
+        <v>4707</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,7 +683,7 @@
       </c>
       <c r="G5" s="2">
         <f>G3*G4</f>
-        <v>770226.21933177009</v>
+        <v>1193130.3599999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -693,7 +694,7 @@
         <v>9307</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -708,7 +709,7 @@
         <v>66579</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,7 +718,7 @@
       </c>
       <c r="G8" s="2">
         <f>G5-G6+G7</f>
-        <v>827498.21933177009</v>
+        <v>1250402.3599999999</v>
       </c>
     </row>
   </sheetData>
@@ -733,10 +734,10 @@
   <dimension ref="A1:BY443"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="C29:J31"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,13 +997,17 @@
       <c r="C5" s="7">
         <v>11961</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="7">
+        <v>12487</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="7">
         <v>14916</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="7">
+        <v>15004</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1376,7 +1381,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12487</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
@@ -1392,7 +1397,7 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15004</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
@@ -1861,7 +1866,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12487</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="4"/>
@@ -1877,7 +1882,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15004</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="4"/>
@@ -2171,7 +2176,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12487</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="7"/>
@@ -2187,7 +2192,7 @@
       </c>
       <c r="H17" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15004</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="7"/>
@@ -2389,7 +2394,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12487</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="10"/>
@@ -2405,7 +2410,7 @@
       </c>
       <c r="H19" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15004</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="10"/>
@@ -2607,7 +2612,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12487</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="13"/>
@@ -2623,7 +2628,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" ref="H21:I21" si="14">+H19-H20</f>
-        <v>0</v>
+        <v>15004</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="14"/>
@@ -2807,9 +2812,9 @@
         <f t="shared" ref="C23:F23" si="17">+C21/C24</f>
         <v>0.29333628514500776</v>
       </c>
-      <c r="D23" s="8" t="e">
+      <c r="D23" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>2.6882669537136707</v>
       </c>
       <c r="E23" s="8" t="e">
         <f t="shared" si="17"/>
@@ -2823,9 +2828,9 @@
         <f>+G21/G24</f>
         <v>1.1720979765708199</v>
       </c>
-      <c r="H23" s="8" t="e">
+      <c r="H23" s="8">
         <f t="shared" ref="H23:J23" si="18">+H21/H24</f>
-        <v>#DIV/0!</v>
+        <v>3.1875929466751645</v>
       </c>
       <c r="I23" s="8" t="e">
         <f t="shared" si="18"/>
@@ -2931,13 +2936,17 @@
       <c r="C24" s="2">
         <v>4517</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>4645</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>4695</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>4707</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3294,52 +3303,52 @@
       <c r="BY27" s="2"/>
     </row>
     <row r="28" spans="2:77" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="9">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="10">
         <f>+G5/C5-1</f>
         <v>0.24705292199648854</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="9" t="e">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="10" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="9" t="e">
+      <c r="N28" s="10" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="9" t="e">
+      <c r="O28" s="10" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="9" t="e">
+      <c r="P28" s="10" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="10">
         <f t="shared" si="21"/>
         <v>7.8788061319760239E-2</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="10">
         <f t="shared" si="22"/>
         <v>0.43985035874815037</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -3402,9 +3411,9 @@
         <f t="shared" ref="C29:J29" si="23">+C9/C5</f>
         <v>0.61658724186940894</v>
       </c>
-      <c r="D29" s="9" t="e">
+      <c r="D29" s="9">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E29" s="9" t="e">
         <f t="shared" si="23"/>
@@ -3418,9 +3427,9 @@
         <f t="shared" si="23"/>
         <v>0.68014212925717354</v>
       </c>
-      <c r="H29" s="9" t="e">
+      <c r="H29" s="9">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I29" s="9" t="e">
         <f t="shared" si="23"/>
@@ -3527,9 +3536,9 @@
         <f t="shared" ref="C30:J30" si="25">+C14/C5</f>
         <v>0.17414931861884458</v>
       </c>
-      <c r="D30" s="9" t="e">
+      <c r="D30" s="9">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E30" s="9" t="e">
         <f t="shared" si="25"/>
@@ -3543,9 +3552,9 @@
         <f t="shared" si="25"/>
         <v>0.41968356127648165</v>
       </c>
-      <c r="H30" s="9" t="e">
+      <c r="H30" s="9">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I30" s="9" t="e">
         <f t="shared" si="25"/>
@@ -3652,9 +3661,9 @@
         <f t="shared" ref="C31:J31" si="27">+C18/C17</f>
         <v>4.8815506101938265E-2</v>
       </c>
-      <c r="D31" s="9" t="e">
+      <c r="D31" s="9">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E31" s="9" t="e">
         <f t="shared" si="27"/>
@@ -3668,9 +3677,9 @@
         <f t="shared" si="27"/>
         <v>-2.3679417122040073E-3</v>
       </c>
-      <c r="H31" s="9" t="e">
+      <c r="H31" s="9">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I31" s="9" t="e">
         <f t="shared" si="27"/>

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA5BEE-3F23-4948-B775-6CC9054635AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E737DD-3301-41F9-AC43-8D466219BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{04A738BD-2870-4489-8638-5155B260011A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{04A738BD-2870-4489-8638-5155B260011A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>253.48</v>
+        <v>338.12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4707</v>
+        <v>4703.4709789999997</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>53</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="G5" s="4">
         <f>G3*G4</f>
-        <v>1193130.3599999999</v>
+        <v>1590337.6074194799</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="4">
-        <v>9307</v>
+        <v>9472</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>53</v>
@@ -742,8 +742,8 @@
         <v>8</v>
       </c>
       <c r="G7" s="4">
-        <f>60926+5653</f>
-        <v>66579</v>
+        <f>5531+61751</f>
+        <v>67282</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>53</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="G8" s="4">
         <f>G5-G6+G7</f>
-        <v>1250402.3599999999</v>
+        <v>1648147.6074194799</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +771,10 @@
   <dimension ref="A1:BY443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -855,13 +855,17 @@
       <c r="C3" s="11">
         <v>7412</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>7192</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11">
         <v>8171</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11">
+        <v>8506</v>
+      </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -945,13 +949,17 @@
       <c r="C4" s="11">
         <v>4549</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>5295</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <v>6745</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>6498</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1046,7 +1054,9 @@
       <c r="H5" s="13">
         <v>15004</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="13">
+        <v>15952</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -1141,14 +1151,20 @@
       <c r="C6" s="11">
         <v>2160</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>2429</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
         <v>2693</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="11">
+        <v>2720</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3704</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1231,14 +1247,20 @@
       <c r="C7" s="11">
         <v>954</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>713</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
         <v>580</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="11">
+        <v>576</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1519</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1322,15 +1344,23 @@
         <f>1380+92</f>
         <v>1472</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <f>1516+53</f>
+        <v>1569</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
         <f>1484+14</f>
         <v>1498</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="11">
+        <f>1483+28</f>
+        <v>1511</v>
+      </c>
+      <c r="I8" s="11">
+        <v>26</v>
+      </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1419,7 +1449,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="2"/>
-        <v>12487</v>
+        <v>7776</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="2"/>
@@ -1435,11 +1465,11 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
-        <v>15004</v>
+        <v>10197</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10703</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="2"/>
@@ -1541,13 +1571,17 @@
       <c r="C10" s="11">
         <v>2308</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>2415</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11">
         <v>2253</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <v>2693</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1631,13 +1665,17 @@
       <c r="C11" s="11">
         <v>1572</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11">
+        <v>1277</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
         <v>949</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>1083</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1721,13 +1759,17 @@
       <c r="C12" s="11">
         <v>792</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>827</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
         <v>511</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <v>506</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1811,13 +1853,17 @@
       <c r="C13" s="11">
         <v>620</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>292</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
         <v>172</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11">
+        <v>86</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1904,7 +1950,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="4"/>
-        <v>12487</v>
+        <v>2965</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="4"/>
@@ -1920,11 +1966,11 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="4"/>
-        <v>15004</v>
+        <v>5829</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10703</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="4"/>
@@ -2030,14 +2076,18 @@
         <f>-926+185</f>
         <v>-741</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>-1047</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
         <f>-873+103</f>
         <v>-770</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>-769</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -2121,13 +2171,17 @@
       <c r="C16" s="11">
         <v>51</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>87</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>25</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -2214,7 +2268,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="7"/>
-        <v>12487</v>
+        <v>2005</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="7"/>
@@ -2230,11 +2284,11 @@
       </c>
       <c r="H17" s="11">
         <f t="shared" si="7"/>
-        <v>15004</v>
+        <v>5085</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10703</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="7"/>
@@ -2339,13 +2393,17 @@
       <c r="C18" s="11">
         <v>68</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11">
+        <v>-116</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
         <v>-13</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11">
+        <v>120</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -2432,7 +2490,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="10"/>
-        <v>12487</v>
+        <v>2121</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="10"/>
@@ -2448,11 +2506,11 @@
       </c>
       <c r="H19" s="11">
         <f t="shared" si="10"/>
-        <v>15004</v>
+        <v>4965</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10703</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="10"/>
@@ -2557,13 +2615,17 @@
       <c r="C20" s="11">
         <v>0</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -2650,7 +2712,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="13"/>
-        <v>12487</v>
+        <v>2121</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="13"/>
@@ -2666,11 +2728,11 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" ref="H21:I21" si="14">+H19-H20</f>
-        <v>15004</v>
+        <v>4965</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10703</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -2852,7 +2914,7 @@
       </c>
       <c r="D23" s="14">
         <f t="shared" si="17"/>
-        <v>2.6882669537136707</v>
+        <v>0.45662002152852532</v>
       </c>
       <c r="E23" s="14" t="e">
         <f t="shared" si="17"/>
@@ -2868,7 +2930,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" ref="H23:J23" si="18">+H21/H24</f>
-        <v>3.1875929466751645</v>
+        <v>1.0548119821542383</v>
       </c>
       <c r="I23" s="14" t="e">
         <f t="shared" si="18"/>
@@ -3150,29 +3212,38 @@
         <f t="shared" ref="G26:G27" si="20">+G3/C3-1</f>
         <v>0.10240151106314088</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="H26" s="15">
+        <f t="shared" ref="H26:H28" si="21">+H3/D3-1</f>
+        <v>0.18270300333704115</v>
+      </c>
+      <c r="I26" s="15" t="e">
+        <f t="shared" ref="I26:I28" si="22">+I3/E3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="15" t="e">
+        <f t="shared" ref="J26:J28" si="23">+J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="15" t="e">
-        <f t="shared" ref="M26:Q28" si="21">+M3/L3-1</f>
+        <f t="shared" ref="M26:Q28" si="24">+M3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6.1422536819271567E-2</v>
       </c>
       <c r="R26" s="15">
@@ -3251,33 +3322,42 @@
         <f t="shared" si="20"/>
         <v>0.48274346010112112</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="15">
+        <f t="shared" si="21"/>
+        <v>0.2271954674220964</v>
+      </c>
+      <c r="I27" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.14467224949465773</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" ref="R27:R28" si="22">+R4/Q4-1</f>
+        <f t="shared" ref="R27:R28" si="25">+R4/Q4-1</f>
         <v>1.6759586276488396</v>
       </c>
       <c r="S27" s="11"/>
@@ -3352,33 +3432,42 @@
         <f>+G5/C5-1</f>
         <v>0.24705292199648854</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="16">
+        <f t="shared" si="21"/>
+        <v>0.20156963241771453</v>
+      </c>
+      <c r="I28" s="16" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="16" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="16" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="16" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="16" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.8788061319760239E-2</v>
       </c>
       <c r="R28" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.43985035874815037</v>
       </c>
       <c r="S28" s="13"/>
@@ -3446,60 +3535,60 @@
         <v>47</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" ref="C29:J29" si="23">+C9/C5</f>
+        <f t="shared" ref="C29:J29" si="26">+C9/C5</f>
         <v>0.61658724186940894</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0.62272763674221188</v>
       </c>
       <c r="E29" s="15" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="15" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.68014212925717354</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" ref="H29:J29" si="27">+H9/H5</f>
+        <v>0.6796187683284457</v>
       </c>
-      <c r="I29" s="15" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+      <c r="I29" s="15">
+        <f t="shared" si="27"/>
+        <v>0.67095035105315948</v>
       </c>
       <c r="J29" s="15" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="15" t="e">
-        <f t="shared" ref="L29:Q29" si="24">+L9/L5</f>
+        <f t="shared" ref="L29:Q29" si="28">+L9/L5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.66545191699545225</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.68929897540411511</v>
       </c>
       <c r="R29" s="15">
@@ -3571,60 +3660,60 @@
         <v>48</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ref="C30:J30" si="25">+C14/C5</f>
+        <f t="shared" ref="C30:J30" si="29">+C14/C5</f>
         <v>0.17414931861884458</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0.23744694482261552</v>
       </c>
       <c r="E30" s="15" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="15" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.41968356127648165</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" ref="H30:J30" si="30">+H14/H5</f>
+        <v>0.38849640095974408</v>
       </c>
-      <c r="I30" s="15" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+      <c r="I30" s="15">
+        <f t="shared" si="30"/>
+        <v>0.67095035105315948</v>
       </c>
       <c r="J30" s="15" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="15" t="e">
-        <f t="shared" ref="L30:Q30" si="26">+L14/L5</f>
+        <f t="shared" ref="L30:Q30" si="31">+L14/L5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="15" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="15" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="15" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.42842514230641809</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.45246935983695802</v>
       </c>
       <c r="R30" s="15">
@@ -3696,60 +3785,60 @@
         <v>49</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31:J31" si="27">+C18/C17</f>
+        <f t="shared" ref="C31:J31" si="32">+C18/C17</f>
         <v>4.8815506101938265E-2</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>-5.7855361596009978E-2</v>
       </c>
       <c r="E31" s="15" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="15" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>-2.3679417122040073E-3</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H31:J31" si="33">+H18/H17</f>
+        <v>2.359882005899705E-2</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I31" s="15" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J31" s="15" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="15" t="e">
-        <f t="shared" ref="L31:Q31" si="28">+L18/L17</f>
+        <f t="shared" ref="L31:Q31" si="34">+L18/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="15" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="15" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="15" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>7.5518738941611707E-2</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>6.7231900377558454E-2</v>
       </c>
       <c r="R31" s="15">

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E737DD-3301-41F9-AC43-8D466219BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D318572-5A59-4376-BA03-FD681305847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{04A738BD-2870-4489-8638-5155B260011A}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4703.4709789999997</v>
+        <v>4722.365022</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>53</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="G5" s="4">
         <f>G3*G4</f>
-        <v>1590337.6074194799</v>
+        <v>1596726.06123864</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -755,7 +755,7 @@
       </c>
       <c r="G8" s="4">
         <f>G5-G6+G7</f>
-        <v>1648147.6074194799</v>
+        <v>1654536.06123864</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +774,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -858,7 +858,9 @@
       <c r="D3" s="11">
         <v>7192</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>7439</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11">
         <v>8171</v>
@@ -866,7 +868,9 @@
       <c r="H3" s="11">
         <v>8506</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11">
+        <v>9257</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -952,7 +956,9 @@
       <c r="D4" s="11">
         <v>5295</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11">
+        <v>5633</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <v>6745</v>
@@ -960,7 +966,9 @@
       <c r="H4" s="11">
         <v>6498</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11">
+        <v>6695</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1046,8 +1054,14 @@
       <c r="D5" s="13">
         <v>12487</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="13">
+        <f>+E3+E4</f>
+        <v>13072</v>
+      </c>
+      <c r="F5" s="13">
+        <f>+F3+F4</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="13">
         <v>14916</v>
       </c>
@@ -1154,7 +1168,9 @@
       <c r="D6" s="11">
         <v>2429</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11">
+        <v>2434</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11">
         <v>2693</v>
@@ -1163,7 +1179,7 @@
         <v>2720</v>
       </c>
       <c r="I6" s="11">
-        <v>3704</v>
+        <v>3096</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1250,7 +1266,9 @@
       <c r="D7" s="11">
         <v>713</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11">
+        <v>699</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
         <v>580</v>
@@ -1259,7 +1277,7 @@
         <v>576</v>
       </c>
       <c r="I7" s="11">
-        <v>1519</v>
+        <v>608</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1348,7 +1366,10 @@
         <f>1516+53</f>
         <v>1569</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <f>1525+58</f>
+        <v>1583</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
         <f>1484+14</f>
@@ -1359,7 +1380,8 @@
         <v>1511</v>
       </c>
       <c r="I8" s="11">
-        <v>26</v>
+        <f>1519+26</f>
+        <v>1545</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1453,7 +1475,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8356</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
@@ -1574,7 +1596,9 @@
       <c r="D10" s="11">
         <v>2415</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11">
+        <v>2353</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11">
         <v>2253</v>
@@ -1582,7 +1606,9 @@
       <c r="H10" s="11">
         <v>2693</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11">
+        <v>3050</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -1668,7 +1694,9 @@
       <c r="D11" s="11">
         <v>1277</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <v>1100</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
         <v>949</v>
@@ -1676,7 +1704,9 @@
       <c r="H11" s="11">
         <v>1083</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11">
+        <v>1072</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1762,7 +1792,9 @@
       <c r="D12" s="11">
         <v>827</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11">
+        <v>812</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
         <v>511</v>
@@ -1770,7 +1802,9 @@
       <c r="H12" s="11">
         <v>506</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11">
+        <v>507</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -1856,7 +1890,9 @@
       <c r="D13" s="11">
         <v>292</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <v>303</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
         <v>172</v>
@@ -1864,7 +1900,9 @@
       <c r="H13" s="11">
         <v>86</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>187</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -1954,7 +1992,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3788</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="4"/>
@@ -1970,7 +2008,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="4"/>
-        <v>10703</v>
+        <v>5887</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="4"/>
@@ -2079,7 +2117,9 @@
       <c r="D15" s="11">
         <v>-1047</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>-1064</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
         <f>-873+103</f>
@@ -2088,7 +2128,9 @@
       <c r="H15" s="11">
         <v>-769</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <v>-807</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -2174,7 +2216,9 @@
       <c r="D16" s="11">
         <v>87</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11">
+        <v>82</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
         <v>0</v>
@@ -2182,7 +2226,9 @@
       <c r="H16" s="11">
         <v>25</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11">
+        <v>205</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2272,7 +2318,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2806</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="7"/>
@@ -2288,7 +2334,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="7"/>
-        <v>10703</v>
+        <v>5285</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="7"/>
@@ -2396,7 +2442,9 @@
       <c r="D18" s="11">
         <v>-116</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11">
+        <v>4238</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
         <v>-13</v>
@@ -2404,7 +2452,9 @@
       <c r="H18" s="11">
         <v>120</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <v>1145</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2494,7 +2544,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1432</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="10"/>
@@ -2510,7 +2560,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="10"/>
-        <v>10703</v>
+        <v>4140</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="10"/>
@@ -2618,7 +2668,9 @@
       <c r="D20" s="11">
         <v>0</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11">
+        <v>443</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
         <v>0</v>
@@ -2626,7 +2678,9 @@
       <c r="H20" s="11">
         <v>0</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -2716,7 +2770,7 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1875</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="13"/>
@@ -2732,7 +2786,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="14"/>
-        <v>10703</v>
+        <v>4140</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -2916,9 +2970,9 @@
         <f t="shared" si="17"/>
         <v>0.45662002152852532</v>
       </c>
-      <c r="E23" s="14" t="e">
+      <c r="E23" s="14">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>-0.40210165129744802</v>
       </c>
       <c r="F23" s="14" t="e">
         <f t="shared" si="17"/>
@@ -2932,9 +2986,9 @@
         <f t="shared" ref="H23:J23" si="18">+H21/H24</f>
         <v>1.0548119821542383</v>
       </c>
-      <c r="I23" s="14" t="e">
+      <c r="I23" s="14">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.87823504454815449</v>
       </c>
       <c r="J23" s="14" t="e">
         <f t="shared" si="18"/>
@@ -3039,7 +3093,9 @@
       <c r="D24" s="11">
         <v>4645</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>4663</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
         <v>4695</v>
@@ -3047,7 +3103,9 @@
       <c r="H24" s="11">
         <v>4707</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11">
+        <v>4714</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3216,9 +3274,9 @@
         <f t="shared" ref="H26:H28" si="21">+H3/D3-1</f>
         <v>0.18270300333704115</v>
       </c>
-      <c r="I26" s="15" t="e">
+      <c r="I26" s="15">
         <f t="shared" ref="I26:I28" si="22">+I3/E3-1</f>
-        <v>#DIV/0!</v>
+        <v>0.24438768651700493</v>
       </c>
       <c r="J26" s="15" t="e">
         <f t="shared" ref="J26:J28" si="23">+J3/F3-1</f>
@@ -3326,9 +3384,9 @@
         <f t="shared" si="21"/>
         <v>0.2271954674220964</v>
       </c>
-      <c r="I27" s="15" t="e">
+      <c r="I27" s="15">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.18853186579087522</v>
       </c>
       <c r="J27" s="15" t="e">
         <f t="shared" si="23"/>
@@ -3436,9 +3494,9 @@
         <f t="shared" si="21"/>
         <v>0.20156963241771453</v>
       </c>
-      <c r="I28" s="16" t="e">
+      <c r="I28" s="16">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.2203182374541004</v>
       </c>
       <c r="J28" s="16" t="e">
         <f t="shared" si="23"/>
@@ -3535,16 +3593,16 @@
         <v>47</v>
       </c>
       <c r="C29" s="15">
-        <f t="shared" ref="C29:J29" si="26">+C9/C5</f>
+        <f t="shared" ref="C29:G29" si="26">+C9/C5</f>
         <v>0.61658724186940894</v>
       </c>
       <c r="D29" s="15">
         <f t="shared" si="26"/>
         <v>0.62272763674221188</v>
       </c>
-      <c r="E29" s="15" t="e">
+      <c r="E29" s="15">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.6392288861689106</v>
       </c>
       <c r="F29" s="15" t="e">
         <f t="shared" si="26"/>
@@ -3660,16 +3718,16 @@
         <v>48</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ref="C30:J30" si="29">+C14/C5</f>
+        <f t="shared" ref="C30:G30" si="29">+C14/C5</f>
         <v>0.17414931861884458</v>
       </c>
       <c r="D30" s="15">
         <f t="shared" si="29"/>
         <v>0.23744694482261552</v>
       </c>
-      <c r="E30" s="15" t="e">
+      <c r="E30" s="15">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>0.28977968176254593</v>
       </c>
       <c r="F30" s="15" t="e">
         <f t="shared" si="29"/>
@@ -3685,7 +3743,7 @@
       </c>
       <c r="I30" s="15">
         <f t="shared" si="30"/>
-        <v>0.67095035105315948</v>
+        <v>0.36904463390170511</v>
       </c>
       <c r="J30" s="15" t="e">
         <f t="shared" si="30"/>
@@ -3785,16 +3843,16 @@
         <v>49</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31:J31" si="32">+C18/C17</f>
+        <f t="shared" ref="C31:G31" si="32">+C18/C17</f>
         <v>4.8815506101938265E-2</v>
       </c>
       <c r="D31" s="15">
         <f t="shared" si="32"/>
         <v>-5.7855361596009978E-2</v>
       </c>
-      <c r="E31" s="15" t="e">
+      <c r="E31" s="15">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>1.5103349964362081</v>
       </c>
       <c r="F31" s="15" t="e">
         <f t="shared" si="32"/>
@@ -3810,7 +3868,7 @@
       </c>
       <c r="I31" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.21665089877010407</v>
       </c>
       <c r="J31" s="15" t="e">
         <f t="shared" si="33"/>

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D318572-5A59-4376-BA03-FD681305847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0736A1-A49A-4B48-8B17-42B6642807BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{04A738BD-2870-4489-8638-5155B260011A}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>338.12</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -720,7 +720,7 @@
       </c>
       <c r="G5" s="4">
         <f>G3*G4</f>
-        <v>1596726.06123864</v>
+        <v>1686828.7858583999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -755,7 +755,7 @@
       </c>
       <c r="G8" s="4">
         <f>G5-G6+G7</f>
-        <v>1654536.06123864</v>
+        <v>1744638.7858583999</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +771,10 @@
   <dimension ref="A1:BY443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1059,8 +1059,7 @@
         <v>13072</v>
       </c>
       <c r="F5" s="13">
-        <f>+F3+F4</f>
-        <v>0</v>
+        <v>14054</v>
       </c>
       <c r="G5" s="13">
         <v>14916</v>
@@ -1071,7 +1070,9 @@
       <c r="I5" s="13">
         <v>15952</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13">
+        <v>18015</v>
+      </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -1479,7 +1480,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14054</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="2"/>
@@ -1495,7 +1496,7 @@
       </c>
       <c r="J9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18015</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
@@ -1996,7 +1997,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14054</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="4"/>
@@ -2012,7 +2013,7 @@
       </c>
       <c r="J14" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18015</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
@@ -2322,7 +2323,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14054</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="7"/>
@@ -2338,7 +2339,7 @@
       </c>
       <c r="J17" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>18015</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11">
@@ -2548,7 +2549,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14054</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="10"/>
@@ -2564,7 +2565,7 @@
       </c>
       <c r="J19" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>18015</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11">
@@ -2774,7 +2775,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14054</v>
       </c>
       <c r="G21" s="11">
         <f>+G19-G20</f>
@@ -3498,9 +3499,9 @@
         <f t="shared" si="22"/>
         <v>0.2203182374541004</v>
       </c>
-      <c r="J28" s="16" t="e">
+      <c r="J28" s="16">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0.2818414686210331</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -3604,9 +3605,9 @@
         <f t="shared" si="26"/>
         <v>0.6392288861689106</v>
       </c>
-      <c r="F29" s="15" t="e">
+      <c r="F29" s="15">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="26"/>
@@ -3620,9 +3621,9 @@
         <f t="shared" si="27"/>
         <v>0.67095035105315948</v>
       </c>
-      <c r="J29" s="15" t="e">
+      <c r="J29" s="15">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="15" t="e">
@@ -3729,9 +3730,9 @@
         <f t="shared" si="29"/>
         <v>0.28977968176254593</v>
       </c>
-      <c r="F30" s="15" t="e">
+      <c r="F30" s="15">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="29"/>
@@ -3745,9 +3746,9 @@
         <f t="shared" si="30"/>
         <v>0.36904463390170511</v>
       </c>
-      <c r="J30" s="15" t="e">
+      <c r="J30" s="15">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="15" t="e">
@@ -3854,9 +3855,9 @@
         <f t="shared" si="32"/>
         <v>1.5103349964362081</v>
       </c>
-      <c r="F31" s="15" t="e">
+      <c r="F31" s="15">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
         <f t="shared" si="32"/>
@@ -3870,9 +3871,9 @@
         <f t="shared" si="33"/>
         <v>0.21665089877010407</v>
       </c>
-      <c r="J31" s="15" t="e">
+      <c r="J31" s="15">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="15" t="e">

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0736A1-A49A-4B48-8B17-42B6642807BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46847D-BA21-4BFC-986C-B8D0C26F43DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{04A738BD-2870-4489-8638-5155B260011A}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>357.2</v>
+        <v>317.44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -705,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4722.365022</v>
+        <v>4741.2737989999996</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -720,7 +720,7 @@
       </c>
       <c r="G5" s="4">
         <f>G3*G4</f>
-        <v>1686828.7858583999</v>
+        <v>1505069.9547545598</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -728,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="4">
-        <v>9472</v>
+        <v>16178</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -742,11 +742,11 @@
         <v>8</v>
       </c>
       <c r="G7" s="4">
-        <f>5531+61751</f>
-        <v>67282</v>
+        <f>3152+61984</f>
+        <v>65136</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -755,7 +755,7 @@
       </c>
       <c r="G8" s="4">
         <f>G5-G6+G7</f>
-        <v>1744638.7858583999</v>
+        <v>1554027.9547545598</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +771,10 @@
   <dimension ref="A1:BY443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -871,7 +871,10 @@
       <c r="I3" s="11">
         <v>9257</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11">
+        <f>+S3-SUM(G3:I3)</f>
+        <v>18913</v>
+      </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -886,7 +889,9 @@
       <c r="R3" s="11">
         <v>30359</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="11">
+        <v>44847</v>
+      </c>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
@@ -969,7 +974,10 @@
       <c r="I4" s="11">
         <v>6695</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11">
+        <f>+S4-SUM(G4:I4)</f>
+        <v>-898</v>
+      </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -984,7 +992,9 @@
       <c r="R4" s="11">
         <v>21215</v>
       </c>
-      <c r="S4" s="11"/>
+      <c r="S4" s="11">
+        <v>19040</v>
+      </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -1071,6 +1081,7 @@
         <v>15952</v>
       </c>
       <c r="J5" s="13">
+        <f>+J3+J4</f>
         <v>18015</v>
       </c>
       <c r="K5" s="11"/>
@@ -1098,7 +1109,7 @@
       </c>
       <c r="S5" s="13">
         <f t="shared" ref="S5" si="1">SUM(S3:S4)</f>
-        <v>0</v>
+        <v>63887</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -1182,7 +1193,10 @@
       <c r="I6" s="11">
         <v>3096</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11">
+        <f>+S6-SUM(G6:I6)</f>
+        <v>3606</v>
+      </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -1197,7 +1211,9 @@
       <c r="R6" s="11">
         <v>9797</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="11">
+        <v>12115</v>
+      </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
@@ -1280,7 +1296,10 @@
       <c r="I7" s="11">
         <v>608</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <f>+S7-SUM(G7:I7)</f>
+        <v>607</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -1295,7 +1314,9 @@
       <c r="R7" s="11">
         <v>2991</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="S7" s="11">
+        <v>2371</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -1384,7 +1405,10 @@
         <f>1519+26</f>
         <v>1545</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11">
+        <f>+S8-SUM(G8:I8)</f>
+        <v>1553</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1402,7 +1426,10 @@
         <f>6023+254</f>
         <v>6277</v>
       </c>
-      <c r="S8" s="11"/>
+      <c r="S8" s="11">
+        <f>6031+76</f>
+        <v>6107</v>
+      </c>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
@@ -1496,7 +1523,7 @@
       </c>
       <c r="J9" s="11">
         <f t="shared" si="2"/>
-        <v>18015</v>
+        <v>12249</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
@@ -1527,7 +1554,10 @@
         <f>+R5-SUM(R6:R8)</f>
         <v>32509</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="S9" s="11">
+        <f>+S5-SUM(S6:S8)</f>
+        <v>43294</v>
+      </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
@@ -1610,7 +1640,10 @@
       <c r="I10" s="11">
         <v>3050</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11">
+        <f>+S10-SUM(G10:I10)</f>
+        <v>2981</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1625,7 +1658,9 @@
       <c r="R10" s="11">
         <v>9310</v>
       </c>
-      <c r="S10" s="11"/>
+      <c r="S10" s="11">
+        <v>10977</v>
+      </c>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
@@ -1708,7 +1743,10 @@
       <c r="I11" s="11">
         <v>1072</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <f>+S11-SUM(G11:I11)</f>
+        <v>1107</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1723,7 +1761,9 @@
       <c r="R11" s="11">
         <v>4959</v>
       </c>
-      <c r="S11" s="11"/>
+      <c r="S11" s="11">
+        <v>4211</v>
+      </c>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
@@ -1806,7 +1846,10 @@
       <c r="I12" s="11">
         <v>507</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <f>+S12-SUM(G12:I12)</f>
+        <v>507</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1821,7 +1864,9 @@
       <c r="R12" s="11">
         <v>3244</v>
       </c>
-      <c r="S12" s="11"/>
+      <c r="S12" s="11">
+        <v>2031</v>
+      </c>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
@@ -1904,7 +1949,10 @@
       <c r="I13" s="11">
         <v>187</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="11">
+        <f>+S13-SUM(G13:I13)</f>
+        <v>146</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -1919,7 +1967,9 @@
       <c r="R13" s="11">
         <v>1533</v>
       </c>
-      <c r="S13" s="11"/>
+      <c r="S13" s="11">
+        <v>591</v>
+      </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
@@ -2013,7 +2063,7 @@
       </c>
       <c r="J14" s="11">
         <f t="shared" si="4"/>
-        <v>18015</v>
+        <v>7508</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
@@ -2046,7 +2096,7 @@
       </c>
       <c r="S14" s="11">
         <f t="shared" ref="S14" si="6">+S9-SUM(S10:S13)</f>
-        <v>0</v>
+        <v>25484</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -2132,7 +2182,10 @@
       <c r="I15" s="11">
         <v>-807</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <f>+S15-SUM(G15:I15)</f>
+        <v>-864</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -2147,7 +2200,9 @@
       <c r="R15" s="11">
         <v>-3953</v>
       </c>
-      <c r="S15" s="11"/>
+      <c r="S15" s="11">
+        <v>-3210</v>
+      </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -2230,7 +2285,10 @@
       <c r="I16" s="11">
         <v>205</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="11">
+        <f>+S16-SUM(G16:I16)</f>
+        <v>225</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -2245,7 +2303,9 @@
       <c r="R16" s="11">
         <v>406</v>
       </c>
-      <c r="S16" s="11"/>
+      <c r="S16" s="11">
+        <v>455</v>
+      </c>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
@@ -2339,7 +2399,7 @@
       </c>
       <c r="J17" s="11">
         <f t="shared" si="7"/>
-        <v>18015</v>
+        <v>6869</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11">
@@ -2372,7 +2432,7 @@
       </c>
       <c r="S17" s="11">
         <f t="shared" ref="S17" si="9">+S14+SUM(S15:S16)</f>
-        <v>0</v>
+        <v>22729</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
@@ -2456,7 +2516,10 @@
       <c r="I18" s="11">
         <v>1145</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <f>+S18-SUM(G18:I18)</f>
+        <v>-1649</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -2471,7 +2534,9 @@
       <c r="R18" s="11">
         <v>3748</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="S18" s="11">
+        <v>-397</v>
+      </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -2565,7 +2630,7 @@
       </c>
       <c r="J19" s="11">
         <f t="shared" si="10"/>
-        <v>18015</v>
+        <v>8518</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11">
@@ -2598,7 +2663,7 @@
       </c>
       <c r="S19" s="11">
         <f t="shared" ref="S19" si="12">+S17-S18</f>
-        <v>0</v>
+        <v>23126</v>
       </c>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
@@ -2682,7 +2747,10 @@
       <c r="I20" s="11">
         <v>0</v>
       </c>
-      <c r="J20" s="11"/>
+      <c r="J20" s="11">
+        <f>+S20-SUM(G20:I20)</f>
+        <v>0</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -2697,7 +2765,9 @@
       <c r="R20" s="11">
         <v>273</v>
       </c>
-      <c r="S20" s="11"/>
+      <c r="S20" s="11">
+        <v>0</v>
+      </c>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
@@ -2782,14 +2852,17 @@
         <v>5503</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" ref="H21:I21" si="14">+H19-H20</f>
+        <f t="shared" ref="H21:J21" si="14">+H19-H20</f>
         <v>4965</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="14"/>
         <v>4140</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11">
+        <f t="shared" si="14"/>
+        <v>8518</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11">
         <f t="shared" ref="L21:Q21" si="15">+L19-L20</f>
@@ -2821,7 +2894,7 @@
       </c>
       <c r="S21" s="11">
         <f t="shared" ref="S21" si="16">+S19-S20</f>
-        <v>0</v>
+        <v>23126</v>
       </c>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
@@ -3024,7 +3097,10 @@
         <f>+R21/R24</f>
         <v>1.2748702422145328</v>
       </c>
-      <c r="S23" s="11"/>
+      <c r="S23" s="14">
+        <f>+S21/S24</f>
+        <v>4.9078947368421053</v>
+      </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
@@ -3122,7 +3198,9 @@
       <c r="R24" s="11">
         <v>4624</v>
       </c>
-      <c r="S24" s="11"/>
+      <c r="S24" s="11">
+        <v>4712</v>
+      </c>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
@@ -3309,7 +3387,10 @@
         <f>+R3/Q3-1</f>
         <v>8.8487325660607352E-2</v>
       </c>
-      <c r="S26" s="11"/>
+      <c r="S26" s="15">
+        <f>+S3/R3-1</f>
+        <v>0.47722256991337009</v>
+      </c>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
@@ -3416,10 +3497,13 @@
         <v>0.14467224949465773</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" ref="R27:R28" si="25">+R4/Q4-1</f>
+        <f t="shared" ref="R27:S28" si="25">+R4/Q4-1</f>
         <v>1.6759586276488396</v>
       </c>
-      <c r="S27" s="11"/>
+      <c r="S27" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.10252180061277394</v>
+      </c>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
@@ -3529,7 +3613,10 @@
         <f t="shared" si="25"/>
         <v>0.43985035874815037</v>
       </c>
-      <c r="S28" s="13"/>
+      <c r="S28" s="16">
+        <f t="shared" si="25"/>
+        <v>0.23874432853763516</v>
+      </c>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
@@ -3623,7 +3710,7 @@
       </c>
       <c r="J29" s="15">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.6799333888426311</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="15" t="e">
@@ -3654,7 +3741,10 @@
         <f>+R9/R5</f>
         <v>0.63033699150734868</v>
       </c>
-      <c r="S29" s="11"/>
+      <c r="S29" s="15">
+        <f>+S9/S5</f>
+        <v>0.67766525271181932</v>
+      </c>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
@@ -3748,7 +3838,7 @@
       </c>
       <c r="J30" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.41676380793782958</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="15" t="e">
@@ -3779,7 +3869,10 @@
         <f>+R14/R5</f>
         <v>0.26104238569822003</v>
       </c>
-      <c r="S30" s="11"/>
+      <c r="S30" s="15">
+        <f>+S14/S5</f>
+        <v>0.39889179332258518</v>
+      </c>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
@@ -3873,7 +3966,7 @@
       </c>
       <c r="J31" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>-0.24006405590333382</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="15" t="e">
@@ -3904,7 +3997,10 @@
         <f>+R18/R17</f>
         <v>0.37797498991528844</v>
       </c>
-      <c r="S31" s="11"/>
+      <c r="S31" s="15">
+        <f>+S18/S17</f>
+        <v>-1.7466672532887501E-2</v>
+      </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
